--- a/tests/reference/Test 1/Channel_combinations_all-defaults-changed.xlsx
+++ b/tests/reference/Test 1/Channel_combinations_all-defaults-changed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:SR2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,22 +451,2542 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>ArmsTonic</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsPhasic</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsAny</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>LegsTonic</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>LegsPhasic</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>LegsAny</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
           <t>ChinTonic,ChinPhasic</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>ChinTonic,ChinAny</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsTonic</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsPhasic</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsAny</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,LegsTonic</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>ChinPhasic,ChinAny</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsTonic</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsPhasic</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsAny</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,LegsTonic</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsTonic</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsPhasic</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsAny</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsTonic,ArmsPhasic</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsTonic,ArmsAny</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsTonic,LegsTonic</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsPhasic,ArmsAny</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsPhasic,LegsTonic</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsPhasic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>ChinTonic,ChinPhasic,ChinAny</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsTonic</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsPhasic</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsAny</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,LegsTonic</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsTonic</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsPhasic</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsAny</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsTonic,ArmsPhasic</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsTonic,ArmsAny</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsTonic,LegsTonic</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsPhasic,ArmsAny</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsPhasic,LegsTonic</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsPhasic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsTonic</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsPhasic</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsAny</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsTonic,ArmsPhasic</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsTonic,ArmsAny</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsTonic,LegsTonic</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsPhasic,ArmsAny</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsPhasic,LegsTonic</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsPhasic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsTonic,ArmsPhasic</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsTonic,ArmsAny</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsTonic,LegsTonic</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsPhasic,ArmsAny</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsPhasic,LegsTonic</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsPhasic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsTonic,ArmsPhasic,ArmsAny</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsTonic,ArmsPhasic,LegsTonic</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsTonic,ArmsPhasic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsTonic,ArmsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsTonic,ArmsAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsTonic,ArmsAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsTonic,ArmsAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsTonic,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="DO1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsTonic,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="DP1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="DQ1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsPhasic,ArmsAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="DR1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsPhasic,ArmsAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="DS1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsPhasic,ArmsAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="DT1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsPhasic,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="DU1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsPhasic,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="DV1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsPhasic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="DW1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="DX1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="DY1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="DZ1" s="1" t="inlineStr">
+        <is>
+          <t>LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="EA1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsTonic</t>
+        </is>
+      </c>
+      <c r="EB1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsPhasic</t>
+        </is>
+      </c>
+      <c r="EC1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsAny</t>
+        </is>
+      </c>
+      <c r="ED1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="EE1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="EF1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="EG1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsTonic,ArmsPhasic</t>
+        </is>
+      </c>
+      <c r="EH1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsTonic,ArmsAny</t>
+        </is>
+      </c>
+      <c r="EI1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsTonic,LegsTonic</t>
+        </is>
+      </c>
+      <c r="EJ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="EK1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="EL1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsPhasic,ArmsAny</t>
+        </is>
+      </c>
+      <c r="EM1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsPhasic,LegsTonic</t>
+        </is>
+      </c>
+      <c r="EN1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsPhasic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="EO1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="EP1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="EQ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="ES1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="ET1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="EU1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="EV1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsTonic,ArmsPhasic</t>
+        </is>
+      </c>
+      <c r="EW1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsTonic,ArmsAny</t>
+        </is>
+      </c>
+      <c r="EX1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsTonic,LegsTonic</t>
+        </is>
+      </c>
+      <c r="EY1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="EZ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="FA1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsPhasic,ArmsAny</t>
+        </is>
+      </c>
+      <c r="FB1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsPhasic,LegsTonic</t>
+        </is>
+      </c>
+      <c r="FC1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsPhasic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="FD1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="FE1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="FF1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="FG1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="FH1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="FI1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="FJ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="FK1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsTonic,ArmsPhasic,ArmsAny</t>
+        </is>
+      </c>
+      <c r="FL1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsTonic,ArmsPhasic,LegsTonic</t>
+        </is>
+      </c>
+      <c r="FM1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsTonic,ArmsPhasic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="FN1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsTonic,ArmsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="FO1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsTonic,ArmsAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="FP1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsTonic,ArmsAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="FQ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsTonic,ArmsAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="FR1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsTonic,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="FS1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsTonic,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="FT1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="FU1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsPhasic,ArmsAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="FV1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsPhasic,ArmsAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="FW1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsPhasic,ArmsAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="FX1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsPhasic,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="FY1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsPhasic,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="FZ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsPhasic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="GA1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="GB1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="GC1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="GD1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="GE1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsTonic,ArmsPhasic</t>
+        </is>
+      </c>
+      <c r="GF1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsTonic,ArmsAny</t>
+        </is>
+      </c>
+      <c r="GG1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsTonic,LegsTonic</t>
+        </is>
+      </c>
+      <c r="GH1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="GI1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="GJ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsPhasic,ArmsAny</t>
+        </is>
+      </c>
+      <c r="GK1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsPhasic,LegsTonic</t>
+        </is>
+      </c>
+      <c r="GL1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsPhasic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="GM1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="GN1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="GO1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="GP1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="GQ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="GR1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="GS1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="GT1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsTonic,ArmsPhasic,ArmsAny</t>
+        </is>
+      </c>
+      <c r="GU1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsTonic,ArmsPhasic,LegsTonic</t>
+        </is>
+      </c>
+      <c r="GV1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsTonic,ArmsPhasic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="GW1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsTonic,ArmsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="GX1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsTonic,ArmsAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="GY1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsTonic,ArmsAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="GZ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsTonic,ArmsAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="HA1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsTonic,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="HB1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsTonic,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="HC1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="HD1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsPhasic,ArmsAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="HE1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsPhasic,ArmsAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="HF1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsPhasic,ArmsAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="HG1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsPhasic,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="HH1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsPhasic,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="HI1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsPhasic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="HJ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="HK1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="HL1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="HM1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="HN1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsTonic,ArmsPhasic,ArmsAny</t>
+        </is>
+      </c>
+      <c r="HO1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsTonic,ArmsPhasic,LegsTonic</t>
+        </is>
+      </c>
+      <c r="HP1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsTonic,ArmsPhasic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="HQ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsTonic,ArmsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="HR1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsTonic,ArmsAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="HS1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsTonic,ArmsAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="HT1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsTonic,ArmsAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="HU1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsTonic,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="HV1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsTonic,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="HW1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="HX1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsPhasic,ArmsAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="HY1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsPhasic,ArmsAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="HZ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsPhasic,ArmsAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsPhasic,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="IB1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsPhasic,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="IC1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsPhasic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="ID1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="IE1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="IF1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="IG1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="IH1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsTonic,ArmsPhasic,ArmsAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="II1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsTonic,ArmsPhasic,ArmsAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="IJ1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsTonic,ArmsPhasic,ArmsAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="IK1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsTonic,ArmsPhasic,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="IL1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsTonic,ArmsPhasic,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="IM1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsTonic,ArmsPhasic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="IN1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsTonic,ArmsAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="IO1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsTonic,ArmsAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="IP1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsTonic,ArmsAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="IQ1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsTonic,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="IR1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsPhasic,ArmsAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="IS1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsPhasic,ArmsAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="IT1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsPhasic,ArmsAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="IU1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsPhasic,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="IV1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="IW1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsTonic,ArmsPhasic</t>
+        </is>
+      </c>
+      <c r="IX1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsTonic,ArmsAny</t>
+        </is>
+      </c>
+      <c r="IY1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsTonic,LegsTonic</t>
+        </is>
+      </c>
+      <c r="IZ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="JA1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="JB1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsPhasic,ArmsAny</t>
+        </is>
+      </c>
+      <c r="JC1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsPhasic,LegsTonic</t>
+        </is>
+      </c>
+      <c r="JD1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsPhasic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="JE1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="JF1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="JG1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="JH1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="JI1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="JJ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="JK1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="JL1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsTonic,ArmsPhasic,ArmsAny</t>
+        </is>
+      </c>
+      <c r="JM1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsTonic,ArmsPhasic,LegsTonic</t>
+        </is>
+      </c>
+      <c r="JN1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsTonic,ArmsPhasic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="JO1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsTonic,ArmsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="JP1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsTonic,ArmsAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="JQ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsTonic,ArmsAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="JR1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsTonic,ArmsAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="JS1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsTonic,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="JT1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsTonic,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="JU1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="JV1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsPhasic,ArmsAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="JW1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsPhasic,ArmsAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="JX1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsPhasic,ArmsAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="JY1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsPhasic,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="JZ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsPhasic,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="KA1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsPhasic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="KB1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="KC1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="KD1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="KE1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="KF1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsTonic,ArmsPhasic,ArmsAny</t>
+        </is>
+      </c>
+      <c r="KG1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsTonic,ArmsPhasic,LegsTonic</t>
+        </is>
+      </c>
+      <c r="KH1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsTonic,ArmsPhasic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="KI1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsTonic,ArmsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="KJ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsTonic,ArmsAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="KK1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsTonic,ArmsAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="KL1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsTonic,ArmsAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="KM1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsTonic,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="KN1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsTonic,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="KO1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="KP1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsPhasic,ArmsAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="KQ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsPhasic,ArmsAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="KR1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsPhasic,ArmsAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="KS1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsPhasic,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="KT1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsPhasic,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="KU1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsPhasic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="KV1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="KW1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="KX1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="KY1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="KZ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsTonic,ArmsPhasic,ArmsAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="LA1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsTonic,ArmsPhasic,ArmsAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="LB1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsTonic,ArmsPhasic,ArmsAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="LC1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsTonic,ArmsPhasic,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="LD1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsTonic,ArmsPhasic,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="LE1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsTonic,ArmsPhasic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="LF1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsTonic,ArmsAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="LG1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsTonic,ArmsAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="LH1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsTonic,ArmsAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="LI1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsTonic,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="LJ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsPhasic,ArmsAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="LK1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsPhasic,ArmsAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="LL1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsPhasic,ArmsAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="LM1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsPhasic,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="LN1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="LO1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsTonic,ArmsPhasic,ArmsAny</t>
+        </is>
+      </c>
+      <c r="LP1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsTonic,ArmsPhasic,LegsTonic</t>
+        </is>
+      </c>
+      <c r="LQ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsTonic,ArmsPhasic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="LR1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsTonic,ArmsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="LS1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsTonic,ArmsAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="LT1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsTonic,ArmsAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="LU1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsTonic,ArmsAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="LV1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsTonic,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="LW1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsTonic,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="LX1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="LY1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsPhasic,ArmsAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="LZ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsPhasic,ArmsAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="MA1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsPhasic,ArmsAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="MB1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsPhasic,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="MC1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsPhasic,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="MD1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsPhasic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="ME1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="MF1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="MG1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="MH1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="MI1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsTonic,ArmsPhasic,ArmsAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="MJ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsTonic,ArmsPhasic,ArmsAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="MK1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsTonic,ArmsPhasic,ArmsAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="ML1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsTonic,ArmsPhasic,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="MM1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsTonic,ArmsPhasic,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="MN1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsTonic,ArmsPhasic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="MO1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsTonic,ArmsAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="MP1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsTonic,ArmsAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="MQ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsTonic,ArmsAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="MR1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsTonic,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="MS1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsPhasic,ArmsAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="MT1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsPhasic,ArmsAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="MU1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsPhasic,ArmsAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="MV1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsPhasic,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="MW1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="MX1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsTonic,ArmsPhasic,ArmsAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="MY1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsTonic,ArmsPhasic,ArmsAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="MZ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsTonic,ArmsPhasic,ArmsAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="NA1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsTonic,ArmsPhasic,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="NB1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsTonic,ArmsPhasic,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="NC1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsTonic,ArmsPhasic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="ND1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsTonic,ArmsAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="NE1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsTonic,ArmsAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="NF1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsTonic,ArmsAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="NG1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsTonic,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="NH1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsPhasic,ArmsAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="NI1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsPhasic,ArmsAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="NJ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsPhasic,ArmsAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="NK1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsPhasic,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="NL1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="NM1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsTonic,ArmsPhasic,ArmsAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="NN1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsTonic,ArmsPhasic,ArmsAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="NO1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsTonic,ArmsPhasic,ArmsAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="NP1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsTonic,ArmsPhasic,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="NQ1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsTonic,ArmsAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="NR1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsPhasic,ArmsAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="NS1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsTonic,ArmsPhasic,ArmsAny</t>
+        </is>
+      </c>
+      <c r="NT1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsTonic,ArmsPhasic,LegsTonic</t>
+        </is>
+      </c>
+      <c r="NU1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsTonic,ArmsPhasic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="NV1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsTonic,ArmsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="NW1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsTonic,ArmsAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="NX1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsTonic,ArmsAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="NY1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsTonic,ArmsAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="NZ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsTonic,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="OA1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsTonic,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="OB1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="OC1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsPhasic,ArmsAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="OD1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsPhasic,ArmsAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="OE1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsPhasic,ArmsAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="OF1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsPhasic,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="OG1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsPhasic,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="OH1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsPhasic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="OI1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="OJ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="OK1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="OL1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="OM1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsTonic,ArmsPhasic,ArmsAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="ON1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsTonic,ArmsPhasic,ArmsAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="OO1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsTonic,ArmsPhasic,ArmsAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="OP1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsTonic,ArmsPhasic,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="OQ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsTonic,ArmsPhasic,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="OR1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsTonic,ArmsPhasic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="OS1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsTonic,ArmsAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="OT1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsTonic,ArmsAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="OU1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsTonic,ArmsAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="OV1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsTonic,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="OW1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsPhasic,ArmsAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="OX1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsPhasic,ArmsAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="OY1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsPhasic,ArmsAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="OZ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsPhasic,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="PA1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="PB1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsTonic,ArmsPhasic,ArmsAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="PC1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsTonic,ArmsPhasic,ArmsAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="PD1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsTonic,ArmsPhasic,ArmsAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="PE1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsTonic,ArmsPhasic,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="PF1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsTonic,ArmsPhasic,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="PG1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsTonic,ArmsPhasic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="PH1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsTonic,ArmsAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="PI1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsTonic,ArmsAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="PJ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsTonic,ArmsAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="PK1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsTonic,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="PL1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsPhasic,ArmsAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="PM1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsPhasic,ArmsAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="PN1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsPhasic,ArmsAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="PO1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsPhasic,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="PP1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="PQ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsTonic,ArmsPhasic,ArmsAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="PR1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsTonic,ArmsPhasic,ArmsAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="PS1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsTonic,ArmsPhasic,ArmsAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="PT1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsTonic,ArmsPhasic,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="PU1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsTonic,ArmsAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="PV1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsPhasic,ArmsAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="PW1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsTonic,ArmsPhasic,ArmsAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="PX1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsTonic,ArmsPhasic,ArmsAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="PY1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsTonic,ArmsPhasic,ArmsAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="PZ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsTonic,ArmsPhasic,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="QA1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsTonic,ArmsPhasic,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="QB1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsTonic,ArmsPhasic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="QC1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsTonic,ArmsAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="QD1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsTonic,ArmsAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="QE1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsTonic,ArmsAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="QF1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsTonic,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="QG1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsPhasic,ArmsAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="QH1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsPhasic,ArmsAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="QI1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsPhasic,ArmsAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="QJ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsPhasic,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="QK1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="QL1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsTonic,ArmsPhasic,ArmsAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="QM1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsTonic,ArmsPhasic,ArmsAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="QN1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsTonic,ArmsPhasic,ArmsAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="QO1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsTonic,ArmsPhasic,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="QP1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsTonic,ArmsAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="QQ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsPhasic,ArmsAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="QR1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsTonic,ArmsPhasic,ArmsAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="QS1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsTonic,ArmsPhasic,ArmsAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="QT1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsTonic,ArmsPhasic,ArmsAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="QU1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsTonic,ArmsPhasic,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="QV1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsTonic,ArmsAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="QW1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsPhasic,ArmsAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="QX1" s="1" t="inlineStr">
+        <is>
+          <t>ArmsTonic,ArmsPhasic,ArmsAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="QY1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsTonic,ArmsPhasic,ArmsAny,LegsTonic</t>
+        </is>
+      </c>
+      <c r="QZ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsTonic,ArmsPhasic,ArmsAny,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="RA1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsTonic,ArmsPhasic,ArmsAny,LegsAny</t>
+        </is>
+      </c>
+      <c r="RB1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsTonic,ArmsPhasic,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="RC1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsTonic,ArmsPhasic,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="RD1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsTonic,ArmsPhasic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="RE1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsTonic,ArmsAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="RF1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsTonic,ArmsAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="RG1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsTonic,ArmsAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="RH1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsTonic,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="RI1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsPhasic,ArmsAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="RJ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsPhasic,ArmsAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="RK1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsPhasic,ArmsAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="RL1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsPhasic,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="RM1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="RN1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsTonic,ArmsPhasic,ArmsAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="RO1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsTonic,ArmsPhasic,ArmsAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="RP1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsTonic,ArmsPhasic,ArmsAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="RQ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsTonic,ArmsPhasic,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="RR1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsTonic,ArmsAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="RS1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsPhasic,ArmsAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="RT1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsTonic,ArmsPhasic,ArmsAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="RU1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsTonic,ArmsPhasic,ArmsAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="RV1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsTonic,ArmsPhasic,ArmsAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="RW1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsTonic,ArmsPhasic,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="RX1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsTonic,ArmsAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="RY1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsPhasic,ArmsAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="RZ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ArmsTonic,ArmsPhasic,ArmsAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="SA1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsTonic,ArmsPhasic,ArmsAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="SB1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsTonic,ArmsPhasic,ArmsAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="SC1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsTonic,ArmsPhasic,ArmsAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="SD1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsTonic,ArmsPhasic,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="SE1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsTonic,ArmsAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="SF1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsPhasic,ArmsAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="SG1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ArmsTonic,ArmsPhasic,ArmsAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="SH1" s="1" t="inlineStr">
+        <is>
+          <t>ChinAny,ArmsTonic,ArmsPhasic,ArmsAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="SI1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsTonic,ArmsPhasic,ArmsAny,LegsTonic,LegsPhasic</t>
+        </is>
+      </c>
+      <c r="SJ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsTonic,ArmsPhasic,ArmsAny,LegsTonic,LegsAny</t>
+        </is>
+      </c>
+      <c r="SK1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsTonic,ArmsPhasic,ArmsAny,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="SL1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsTonic,ArmsPhasic,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="SM1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsTonic,ArmsAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="SN1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsPhasic,ArmsAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="SO1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ArmsTonic,ArmsPhasic,ArmsAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="SP1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinAny,ArmsTonic,ArmsPhasic,ArmsAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="SQ1" s="1" t="inlineStr">
+        <is>
+          <t>ChinPhasic,ChinAny,ArmsTonic,ArmsPhasic,ArmsAny,LegsTonic,LegsPhasic,LegsAny</t>
+        </is>
+      </c>
+      <c r="SR1" s="1" t="inlineStr">
+        <is>
+          <t>ChinTonic,ChinPhasic,ChinAny,ArmsTonic,ArmsPhasic,ArmsAny,LegsTonic,LegsPhasic,LegsAny</t>
         </is>
       </c>
     </row>
@@ -486,16 +3006,1528 @@
         <v>10.52631578947368</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>28.94736842105263</v>
+      </c>
+      <c r="G2" t="n">
+        <v>32.23684210526316</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>19.73684210526316</v>
+      </c>
+      <c r="J2" t="n">
+        <v>19.73684210526316</v>
+      </c>
+      <c r="K2" t="n">
         <v>10.52631578947368</v>
       </c>
-      <c r="F2" t="n">
+      <c r="L2" t="n">
         <v>10.52631578947368</v>
       </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
+        <v>1.644736842105263</v>
+      </c>
+      <c r="N2" t="n">
+        <v>29.93421052631579</v>
+      </c>
+      <c r="O2" t="n">
+        <v>33.22368421052632</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.644736842105263</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>21.05263157894737</v>
+      </c>
+      <c r="R2" t="n">
+        <v>21.05263157894737</v>
+      </c>
+      <c r="S2" t="n">
         <v>10.52631578947368</v>
       </c>
-      <c r="H2" t="n">
+      <c r="T2" t="n">
+        <v>9.539473684210526</v>
+      </c>
+      <c r="U2" t="n">
+        <v>34.375</v>
+      </c>
+      <c r="V2" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="W2" t="n">
+        <v>9.539473684210526</v>
+      </c>
+      <c r="X2" t="n">
+        <v>27.63157894736842</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>27.63157894736842</v>
+      </c>
+      <c r="Z2" t="n">
         <v>10.52631578947368</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>34.70394736842105</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>10.52631578947368</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>28.94736842105263</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>32.23684210526316</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>19.73684210526316</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>19.73684210526316</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>32.23684210526316</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>28.94736842105263</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>40.95394736842105</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>40.95394736842105</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>32.23684210526316</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>43.0921052631579</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>43.0921052631579</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>19.73684210526316</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>19.73684210526316</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>19.73684210526316</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>10.52631578947368</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>10.52631578947368</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>34.70394736842105</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>10.52631578947368</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>10.52631578947368</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>34.70394736842105</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>10.52631578947368</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>29.93421052631579</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>33.22368421052632</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1.644736842105263</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>21.05263157894737</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>21.05263157894737</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>33.22368421052632</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>29.93421052631579</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>41.77631578947368</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>41.77631578947368</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>33.22368421052632</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>43.91447368421053</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>43.91447368421053</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>21.05263157894737</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>21.05263157894737</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>21.05263157894737</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>10.52631578947368</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>34.70394736842105</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>10.52631578947368</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>34.375</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>9.539473684210526</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>27.63157894736842</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>27.63157894736842</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>34.375</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>46.05263157894737</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>46.05263157894737</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>48.02631578947368</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>48.02631578947368</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>27.63157894736842</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>27.63157894736842</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>27.63157894736842</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>34.70394736842105</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>10.52631578947368</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>34.70394736842105</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>32.23684210526316</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>28.94736842105263</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>40.95394736842105</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>40.95394736842105</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>32.23684210526316</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>43.0921052631579</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>43.0921052631579</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>19.73684210526316</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>19.73684210526316</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>19.73684210526316</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>32.23684210526316</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>43.0921052631579</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>43.0921052631579</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>40.95394736842105</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>40.95394736842105</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>40.95394736842105</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>43.0921052631579</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>43.0921052631579</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>43.0921052631579</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>19.73684210526316</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>10.52631578947368</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>34.70394736842105</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>10.52631578947368</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>34.70394736842105</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>10.52631578947368</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>34.70394736842105</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>34.70394736842105</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>10.52631578947368</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>34.70394736842105</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>33.22368421052632</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>29.93421052631579</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>41.77631578947368</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>41.77631578947368</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>33.22368421052632</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>43.91447368421053</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>43.91447368421053</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>21.05263157894737</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>21.05263157894737</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>21.05263157894737</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>33.22368421052632</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>43.91447368421053</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>43.91447368421053</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>41.77631578947368</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>41.77631578947368</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>41.77631578947368</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>43.91447368421053</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>43.91447368421053</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>43.91447368421053</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>21.05263157894737</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>34.70394736842105</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>10.52631578947368</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>34.70394736842105</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>34.375</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>46.05263157894737</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>46.05263157894737</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>48.02631578947368</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>48.02631578947368</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>27.63157894736842</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>27.63157894736842</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>27.63157894736842</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>48.02631578947368</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>48.02631578947368</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>46.05263157894737</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>46.05263157894737</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>46.05263157894737</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>48.02631578947368</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>48.02631578947368</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>48.02631578947368</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>27.63157894736842</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>34.70394736842105</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>32.23684210526316</v>
+      </c>
+      <c r="II2" t="n">
+        <v>43.0921052631579</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>43.0921052631579</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>40.95394736842105</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>40.95394736842105</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>40.95394736842105</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>43.0921052631579</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>43.0921052631579</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>43.0921052631579</v>
+      </c>
+      <c r="IQ2" t="n">
+        <v>19.73684210526316</v>
+      </c>
+      <c r="IR2" t="n">
+        <v>43.0921052631579</v>
+      </c>
+      <c r="IS2" t="n">
+        <v>43.0921052631579</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>43.0921052631579</v>
+      </c>
+      <c r="IU2" t="n">
+        <v>40.95394736842105</v>
+      </c>
+      <c r="IV2" t="n">
+        <v>43.0921052631579</v>
+      </c>
+      <c r="IW2" t="n">
+        <v>34.70394736842105</v>
+      </c>
+      <c r="IX2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="IY2" t="n">
+        <v>10.52631578947368</v>
+      </c>
+      <c r="IZ2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="JA2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="JB2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="JC2" t="n">
+        <v>34.70394736842105</v>
+      </c>
+      <c r="JD2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="JE2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="JF2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="JG2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="JH2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="JI2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="JJ2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="JK2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="JL2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="JM2" t="n">
+        <v>34.70394736842105</v>
+      </c>
+      <c r="JN2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="JO2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="JP2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="JQ2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="JR2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="JS2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="JT2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="JU2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="JV2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="JW2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="JX2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="JY2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="JZ2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="KA2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="KB2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="KC2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="KD2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="KG2" t="n">
+        <v>34.70394736842105</v>
+      </c>
+      <c r="KH2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="KI2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="KJ2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="KK2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="KM2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="KN2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="KO2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="KP2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="KQ2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="KR2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="KS2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="KT2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="KU2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="KV2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="KW2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="KX2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="KY2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="KZ2" t="n">
+        <v>33.22368421052632</v>
+      </c>
+      <c r="LA2" t="n">
+        <v>43.91447368421053</v>
+      </c>
+      <c r="LB2" t="n">
+        <v>43.91447368421053</v>
+      </c>
+      <c r="LC2" t="n">
+        <v>41.77631578947368</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>41.77631578947368</v>
+      </c>
+      <c r="LE2" t="n">
+        <v>41.77631578947368</v>
+      </c>
+      <c r="LF2" t="n">
+        <v>43.91447368421053</v>
+      </c>
+      <c r="LG2" t="n">
+        <v>43.91447368421053</v>
+      </c>
+      <c r="LH2" t="n">
+        <v>43.91447368421053</v>
+      </c>
+      <c r="LI2" t="n">
+        <v>21.05263157894737</v>
+      </c>
+      <c r="LJ2" t="n">
+        <v>43.91447368421053</v>
+      </c>
+      <c r="LK2" t="n">
+        <v>43.91447368421053</v>
+      </c>
+      <c r="LL2" t="n">
+        <v>43.91447368421053</v>
+      </c>
+      <c r="LM2" t="n">
+        <v>41.77631578947368</v>
+      </c>
+      <c r="LN2" t="n">
+        <v>43.91447368421053</v>
+      </c>
+      <c r="LO2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="LP2" t="n">
+        <v>34.70394736842105</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="MG2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="MJ2" t="n">
+        <v>48.02631578947368</v>
+      </c>
+      <c r="MK2" t="n">
+        <v>48.02631578947368</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>46.05263157894737</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>46.05263157894737</v>
+      </c>
+      <c r="MN2" t="n">
+        <v>46.05263157894737</v>
+      </c>
+      <c r="MO2" t="n">
+        <v>48.02631578947368</v>
+      </c>
+      <c r="MP2" t="n">
+        <v>48.02631578947368</v>
+      </c>
+      <c r="MQ2" t="n">
+        <v>48.02631578947368</v>
+      </c>
+      <c r="MR2" t="n">
+        <v>27.63157894736842</v>
+      </c>
+      <c r="MS2" t="n">
+        <v>48.02631578947368</v>
+      </c>
+      <c r="MT2" t="n">
+        <v>48.02631578947368</v>
+      </c>
+      <c r="MU2" t="n">
+        <v>48.02631578947368</v>
+      </c>
+      <c r="MV2" t="n">
+        <v>46.05263157894737</v>
+      </c>
+      <c r="MW2" t="n">
+        <v>48.02631578947368</v>
+      </c>
+      <c r="MX2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="MY2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="MZ2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="NA2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="NB2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="NC2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="ND2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="NE2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="NF2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="NG2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="NH2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="NI2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="NJ2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="NK2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="NL2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="NM2" t="n">
+        <v>43.0921052631579</v>
+      </c>
+      <c r="NN2" t="n">
+        <v>43.0921052631579</v>
+      </c>
+      <c r="NO2" t="n">
+        <v>43.0921052631579</v>
+      </c>
+      <c r="NP2" t="n">
+        <v>40.95394736842105</v>
+      </c>
+      <c r="NQ2" t="n">
+        <v>43.0921052631579</v>
+      </c>
+      <c r="NR2" t="n">
+        <v>43.0921052631579</v>
+      </c>
+      <c r="NS2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="NT2" t="n">
+        <v>34.70394736842105</v>
+      </c>
+      <c r="NU2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="NV2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="NW2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="NX2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="NY2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="NZ2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="OA2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="OB2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="OC2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="OD2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="OE2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="OF2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="OG2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="OH2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="OI2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="OJ2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="OK2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="OL2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="OM2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="ON2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="OO2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="OP2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="OQ2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="OR2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="OS2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="OT2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="OU2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="OV2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="OW2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="OX2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="OY2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="OZ2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="PA2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="PB2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="PC2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="PD2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="PE2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="PF2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="PG2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="PH2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="PI2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="PJ2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="PK2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="PL2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="PM2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="PN2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="PO2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="PP2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="PQ2" t="n">
+        <v>43.91447368421053</v>
+      </c>
+      <c r="PR2" t="n">
+        <v>43.91447368421053</v>
+      </c>
+      <c r="PS2" t="n">
+        <v>43.91447368421053</v>
+      </c>
+      <c r="PT2" t="n">
+        <v>41.77631578947368</v>
+      </c>
+      <c r="PU2" t="n">
+        <v>43.91447368421053</v>
+      </c>
+      <c r="PV2" t="n">
+        <v>43.91447368421053</v>
+      </c>
+      <c r="PW2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="PX2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="PY2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="PZ2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="QA2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="QB2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="QC2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="QD2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="QE2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="QF2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="QG2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="QH2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="QI2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="QJ2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="QK2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="QL2" t="n">
+        <v>48.02631578947368</v>
+      </c>
+      <c r="QM2" t="n">
+        <v>48.02631578947368</v>
+      </c>
+      <c r="QN2" t="n">
+        <v>48.02631578947368</v>
+      </c>
+      <c r="QO2" t="n">
+        <v>46.05263157894737</v>
+      </c>
+      <c r="QP2" t="n">
+        <v>48.02631578947368</v>
+      </c>
+      <c r="QQ2" t="n">
+        <v>48.02631578947368</v>
+      </c>
+      <c r="QR2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="QS2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="QT2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="QU2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="QV2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="QW2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="QX2" t="n">
+        <v>43.0921052631579</v>
+      </c>
+      <c r="QY2" t="n">
+        <v>37.82894736842105</v>
+      </c>
+      <c r="QZ2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="RA2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="RB2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="RC2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="RD2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="RE2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="RF2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="RG2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="RH2" t="n">
+        <v>28.28947368421053</v>
+      </c>
+      <c r="RI2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="RJ2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="RK2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="RL2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="RM2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="RN2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="RO2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="RP2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="RQ2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="RR2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="RS2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="RT2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="RU2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="RV2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="RW2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="RX2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="RY2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="RZ2" t="n">
+        <v>43.91447368421053</v>
+      </c>
+      <c r="SA2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="SB2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="SC2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="SD2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="SE2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="SF2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="SG2" t="n">
+        <v>48.02631578947368</v>
+      </c>
+      <c r="SH2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="SI2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="SJ2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="SK2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="SL2" t="n">
+        <v>46.2171052631579</v>
+      </c>
+      <c r="SM2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="SN2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="SO2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="SP2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="SQ2" t="n">
+        <v>48.19078947368421</v>
+      </c>
+      <c r="SR2" t="n">
+        <v>48.19078947368421</v>
       </c>
     </row>
   </sheetData>
